--- a/biology/Botanique/Emilia_coccinea/Emilia_coccinea.xlsx
+++ b/biology/Botanique/Emilia_coccinea/Emilia_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emilia Coccinea est une espèce de plantes à fleurs de la famille des Asteraceae. À l'état sauvage, elle se rencontre en République démocratique du Congo, en Angola et en Zambie.
-Ses propriétés sont souvent confondues avec celles d'Emilia lisowskiana et Emilia praetermissa Milne-Redh[2]. De même, les aires de répartition d’Emilia lisowskiana et Emilia coccinea se superposent (République démocratique du Congo, Angola et Zambie) avec des différences néanmoins d’un point de vue écologique.
-Emilia reste proche de Senecio et, d’un point de vue végétatif, ressemble à des espèces de Sonchus mais s’en distingue grâce à ses tiges pleines et à l’absence de latex[2].
+Ses propriétés sont souvent confondues avec celles d'Emilia lisowskiana et Emilia praetermissa Milne-Redh. De même, les aires de répartition d’Emilia lisowskiana et Emilia coccinea se superposent (République démocratique du Congo, Angola et Zambie) avec des différences néanmoins d’un point de vue écologique.
+Emilia reste proche de Senecio et, d’un point de vue végétatif, ressemble à des espèces de Sonchus mais s’en distingue grâce à ses tiges pleines et à l’absence de latex.
 Lors d'une utilisation ornementale, Emilia coccinea est souvent confondue avec l'Emilia flammea et Emilia javanica.
 Son nom vernaculaire en swahili est Kilembe cha mbwana, ulimi wa ngombe, en français il s’agit d’Émilie ou cucolie écarlate, en anglais on parle de Tassel flower, Cupid’s paintbrush ou red thistle.
 </t>
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emilia coccinea peut atteindre 90 à 120 cm de haut et se trouve dans les régions d'Afrique suivantes : Sierra Leone, Liberia, Côte d’Ivoire, Ghana, Togo, Nigeria, Guinée équatoriale, Centrafrique, R.D. du Congo, Zambie, Angola, Cameroun, Zimbabwe, Mozambique et parfois en Guinée, au Soudan et en Ouganda.
 Plante herbacée avec des tiges glabres et des feuilles alternes simples, ses fleurs sont bisexuées avec une corolle tubulaire de 7 à 10 mm de long, orange-jaune à orange. Les étamines forment un tube et le fruit est un akène de 2 mm de long courtement poilu avec un pappus de 6 mm de long. Il existe environ 100 espèces de cette plante indigène dans les tropiques de l’Ancien Monde.
@@ -549,7 +563,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante peut être utilisée en légume dont les feuilles sont généralement consommées hachées, crues ou cuites avec des légumes secs comme les pois et haricots (Tanzanie).
 Le jus de feuilles frais est antimicrobien, antioxydant et anti-inflammatoire. Il peut être utilisé pour traiter toutes sortes de troubles de la peau tels que l’abcès du sein, les ulcères dus au pian, les affections lépreuses, la gale, les poux et la teigne (Congo).
